--- a/inputs-femiaculture.xlsx
+++ b/inputs-femiaculture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\DA-Code_Femiaculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B204B1-C192-476F-82A1-94CD62874DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E645AE-9867-41C9-A030-070804E2BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92014F9E-F35E-424B-B676-9B4C8F84CE71}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>SQ Husband's Workforce investment</t>
   </si>
   <si>
-    <t>SQ Husband's Workforce investment (Dollar/Month)</t>
-  </si>
-  <si>
     <t>Husband's Empowerment Workforce investment (Dollar/Month)</t>
   </si>
   <si>
@@ -251,25 +248,22 @@
   </si>
   <si>
     <t>SQ_Husband_Workforce_investment</t>
+  </si>
+  <si>
+    <t>Status Quo Husband's Workforce investment (Dollar/Month)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -628,7 +622,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +913,10 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -939,10 +933,10 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>

--- a/inputs-femiaculture.xlsx
+++ b/inputs-femiaculture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\DA-Code_Femiaculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E645AE-9867-41C9-A030-070804E2BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B48B4F-CFE5-40B7-B260-452DC2287F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92014F9E-F35E-424B-B676-9B4C8F84CE71}"/>
   </bookViews>
@@ -32,33 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={3364BCDC-664B-4938-8BCC-5A08C47D7F27}</author>
-    <author>tc={81FD7B0C-55CA-48C7-BFCF-B6C58BCD2DFD}</author>
-  </authors>
-  <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{3364BCDC-664B-4938-8BCC-5A08C47D7F27}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Welche summe monatlich für health care und food ausgegeben werden sollte um max lang im workforce zu bleiben und wie sich das zum status quo verhält. Wie lange bleiben frauen hier im workforce?</t>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{81FD7B0C-55CA-48C7-BFCF-B6C58BCD2DFD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Welche summe monatlich für health care und food ausgegeben werden sollte um max lang im workforce zu bleiben und wie sich das zum status quo verhält. Wie lange bleiben frauen hier im workforce?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -306,9 +279,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Alexandra Krause" id="{34E1A103-201D-4CBE-A5B2-43672296E4EA}" userId="4edf099782f82b30" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,23 +577,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A9" dT="2022-06-05T17:52:33.37" personId="{34E1A103-201D-4CBE-A5B2-43672296E4EA}" id="{3364BCDC-664B-4938-8BCC-5A08C47D7F27}">
-    <text>Welche summe monatlich für health care und food ausgegeben werden sollte um max lang im workforce zu bleiben und wie sich das zum status quo verhält. Wie lange bleiben frauen hier im workforce?</text>
-  </threadedComment>
-  <threadedComment ref="A11" dT="2022-06-05T17:52:33.37" personId="{34E1A103-201D-4CBE-A5B2-43672296E4EA}" id="{81FD7B0C-55CA-48C7-BFCF-B6C58BCD2DFD}">
-    <text>Welche summe monatlich für health care und food ausgegeben werden sollte um max lang im workforce zu bleiben und wie sich das zum status quo verhält. Wie lange bleiben frauen hier im workforce?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D009A66-3A3D-4DE3-B90D-7C6F953DE9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D009A66-3A3D-4DE3-B90D-7C6F953DE9E4}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,6 +1030,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputs-femiaculture.xlsx
+++ b/inputs-femiaculture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\DA-Code_Femiaculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B48B4F-CFE5-40B7-B260-452DC2287F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BFE49-6523-4934-9831-FADB984EF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92014F9E-F35E-424B-B676-9B4C8F84CE71}"/>
   </bookViews>

--- a/inputs-femiaculture.xlsx
+++ b/inputs-femiaculture.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\DA-Code_Femiaculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\DA-Code_Femiaculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BFE49-6523-4934-9831-FADB984EF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1B25D-016C-4B1F-9510-A77BE0E8E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92014F9E-F35E-424B-B676-9B4C8F84CE71}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -61,15 +61,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Education investment</t>
-  </si>
-  <si>
-    <t>Economy investment</t>
-  </si>
-  <si>
-    <t>Economy payout</t>
-  </si>
-  <si>
     <t>Coefficient of variation</t>
   </si>
   <si>
@@ -94,12 +85,6 @@
     <t>Economy_payout</t>
   </si>
   <si>
-    <t>Months of receiving money</t>
-  </si>
-  <si>
-    <t>Months of paying into empowerment efforts</t>
-  </si>
-  <si>
     <t>Education investment (Dollar/Month)</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Status Quo Resources payout</t>
-  </si>
-  <si>
     <t>Status Quo Resources payout (Dollar/Month)</t>
   </si>
   <si>
@@ -127,27 +109,15 @@
     <t>SQ_Resources_payout</t>
   </si>
   <si>
-    <t>Empowerment Resources investment</t>
-  </si>
-  <si>
-    <t>Empowerment Resources payout</t>
-  </si>
-  <si>
     <t>Empowerment Resources investment (Dollar/Month)</t>
   </si>
   <si>
-    <t>Empowerment payout (Dollar/Month)</t>
-  </si>
-  <si>
     <t>Empowerment_Resources_investment</t>
   </si>
   <si>
     <t>Empowerment_Resources_payout</t>
   </si>
   <si>
-    <t>Risk Safety</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk Safety </t>
   </si>
   <si>
@@ -163,12 +133,6 @@
     <t>investment_months</t>
   </si>
   <si>
-    <t>Status Quo Workforce investment</t>
-  </si>
-  <si>
-    <t>Status Quo Workforce payout</t>
-  </si>
-  <si>
     <t>Status Quo Workforce investment (Dollar/Month)</t>
   </si>
   <si>
@@ -181,12 +145,6 @@
     <t>SQ_Workforce_payout</t>
   </si>
   <si>
-    <t>Empowerment Workforce investment</t>
-  </si>
-  <si>
-    <t>Empowerment Workforce payout</t>
-  </si>
-  <si>
     <t>Empowerment Workforce investment (Dollar/Month)</t>
   </si>
   <si>
@@ -205,15 +163,6 @@
     <t>Months of paying into empowerment efforts (Dollar/Month)</t>
   </si>
   <si>
-    <t>Status Quo Resources investment</t>
-  </si>
-  <si>
-    <t>Husband's Workforce investment</t>
-  </si>
-  <si>
-    <t>SQ Husband's Workforce investment</t>
-  </si>
-  <si>
     <t>Husband's Empowerment Workforce investment (Dollar/Month)</t>
   </si>
   <si>
@@ -224,6 +173,68 @@
   </si>
   <si>
     <t>Status Quo Husband's Workforce investment (Dollar/Month)</t>
+  </si>
+  <si>
+    <t>Education investment: Within the model, a farm woman who chooses to change her status quo first must invest in some form of education or training. This investment is estimated here.</t>
+  </si>
+  <si>
+    <t>Economy investment:Afterward, an investment in the form of a credit, a (new) paid job, or additional income is estimated.
+This investment includes every monthly expanse that leads to an economic payoff in the future, 
+ like transport or child care costs.  Education about this investment possibility took place within the first step</t>
+  </si>
+  <si>
+    <t>Economy payout: Here the range of the monetary gain from the prior investment is calculated.</t>
+  </si>
+  <si>
+    <t>Status Quo Resources investment: Here, the agricultural resource investment range per month is calculated for the status quo option - a life living from farm resources without empowerment intervention.</t>
+  </si>
+  <si>
+    <t>Status Quo Resources payout: Following is the monthly payout of the resource investment a farm woman can expect while not changing the status quo.</t>
+  </si>
+  <si>
+    <t>Empowerment Resources investment: This could be chicken, seeds, processing material, technology, etc.</t>
+  </si>
+  <si>
+    <t>Empowerment Resources payout: Following is the monthly payout of the resource investment a farm woman can expect while changing her situation. This could be monetary gains from eggs, processed food and other.</t>
+  </si>
+  <si>
+    <t>Empowerment resources payout (Dollar/Month)</t>
+  </si>
+  <si>
+    <t>Status Quo Workforce investment: Following are the monthly investments a farm woman could make on nutritious food and health care investments like contraceptives or savings for doctor's visits while in a status quo scenario.</t>
+  </si>
+  <si>
+    <t>Status Quo Workforce payout: Investments in nutritious food and health care can lead to higher workforce ability. A farm woman's daily work hours are calculated and put in monetary values. 
+Here the value ranges for the status quo pathway are calculated.</t>
+  </si>
+  <si>
+    <t>Empowerment Workforce investment: The monthly investments a farm woman could make on nutritious food and health care investments like contraception or savings for doctor's visits while being in an empowerment scenario.</t>
+  </si>
+  <si>
+    <t>Empowerment Workforce payout: Investments into nutritious food and health care can lead to higher workforce ability. A farm woman's daily work hours are calculated here and put in monetary values. 
+Here the value ranges for the empowerment pathway are calculated.</t>
+  </si>
+  <si>
+    <t>SQ Husband's Workforce investment: A husband might share some money with this wife, the farm woman, for health care or food investments.
+This money is calculated here for the status quo pathway.</t>
+  </si>
+  <si>
+    <t>Husband's Empowerment Workforce investment: The Husband's workforce investment for the empowerment pathway is calculated here.</t>
+  </si>
+  <si>
+    <t>Coefficient of variation (This  inputs is constant: No range should be set.) This value is used for time series that include a variation.</t>
+  </si>
+  <si>
+    <t>Discout rate (This  inputs is constant: No range should be set.) The discount rate can indicate the decision maker's willingness to invest in long-term outcomes.</t>
+  </si>
+  <si>
+    <t>Risk Safety (This  inputs is constant: No range should be set.) Here the percentage risk of unsafe conditions ending the empowerment possibility and stopping the intervention is calculated.</t>
+  </si>
+  <si>
+    <t>Months of paying into empowerment efforts (This  inputs is constant: No range should be set.) It calculates how long a farm woman has to invest until she can receive the payback.</t>
+  </si>
+  <si>
+    <t>Months of receiving money (This  inputs is constant: No range should be set.) It calculates how long a farm can receive the payback/studies research the paypack</t>
   </si>
 </sst>
 </file>
@@ -259,11 +270,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,12 +292,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,10 +592,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="67.7109375" customWidth="1"/>
@@ -615,18 +625,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -638,18 +648,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -663,16 +673,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -684,18 +694,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -707,18 +717,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -732,16 +742,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -753,18 +763,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -776,18 +786,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -799,18 +809,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -822,18 +832,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -845,18 +855,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>300</v>
@@ -868,18 +878,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -888,18 +898,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -910,16 +920,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -931,18 +941,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -954,18 +964,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>9</v>
@@ -977,18 +987,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1000,18 +1010,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -1025,7 +1035,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
